--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H2">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I2">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J2">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N2">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O2">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P2">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q2">
-        <v>0.006248493282777779</v>
+        <v>0.03090769104977778</v>
       </c>
       <c r="R2">
-        <v>0.05623643954500001</v>
+        <v>0.278169219448</v>
       </c>
       <c r="S2">
-        <v>0.0004135299806104159</v>
+        <v>0.003222926613093278</v>
       </c>
       <c r="T2">
-        <v>0.0004135299806104158</v>
+        <v>0.003222926613093278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H3">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I3">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J3">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q3">
-        <v>0.08117017066888889</v>
+        <v>0.3664283607404444</v>
       </c>
       <c r="R3">
-        <v>0.73053153602</v>
+        <v>3.297855246664</v>
       </c>
       <c r="S3">
-        <v>0.005371902886631225</v>
+        <v>0.03820963894457634</v>
       </c>
       <c r="T3">
-        <v>0.005371902886631225</v>
+        <v>0.03820963894457634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H4">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I4">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J4">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N4">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q4">
-        <v>0.001943941696666667</v>
+        <v>0.07042752023133333</v>
       </c>
       <c r="R4">
-        <v>0.01749547527</v>
+        <v>0.633847682082</v>
       </c>
       <c r="S4">
-        <v>0.0001286515221751155</v>
+        <v>0.007343891489084931</v>
       </c>
       <c r="T4">
-        <v>0.0001286515221751155</v>
+        <v>0.007343891489084931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04097166666666667</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H5">
-        <v>0.122915</v>
+        <v>0.291019</v>
       </c>
       <c r="I5">
-        <v>0.009706945257535529</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J5">
-        <v>0.009706945257535527</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.385388</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N5">
-        <v>4.156164</v>
+        <v>0.501316</v>
       </c>
       <c r="O5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q5">
-        <v>0.05676165534</v>
+        <v>0.01621027566711111</v>
       </c>
       <c r="R5">
-        <v>0.51085489806</v>
+        <v>0.145892481004</v>
       </c>
       <c r="S5">
-        <v>0.003756529001457213</v>
+        <v>0.001690340723574899</v>
       </c>
       <c r="T5">
-        <v>0.003756529001457212</v>
+        <v>0.001690340723574899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04097166666666667</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H6">
-        <v>0.122915</v>
+        <v>0.291019</v>
       </c>
       <c r="I6">
-        <v>0.009706945257535529</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J6">
-        <v>0.009706945257535527</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013399</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N6">
-        <v>0.040197</v>
+        <v>5.943388</v>
       </c>
       <c r="O6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q6">
-        <v>0.0005489793616666668</v>
+        <v>0.1921820924857778</v>
       </c>
       <c r="R6">
-        <v>0.004940814255000001</v>
+        <v>1.729638832372</v>
       </c>
       <c r="S6">
-        <v>3.633186666155994E-05</v>
+        <v>0.02003995637962158</v>
       </c>
       <c r="T6">
-        <v>3.633186666155994E-05</v>
+        <v>0.02003995637962158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>0.291019</v>
       </c>
       <c r="I7">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J7">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1525076666666667</v>
+        <v>0.380773</v>
       </c>
       <c r="N7">
-        <v>0.457523</v>
+        <v>1.142319</v>
       </c>
       <c r="O7">
-        <v>0.04260145387029884</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P7">
-        <v>0.04260145387029883</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q7">
-        <v>0.01479420954855556</v>
+        <v>0.03693739256233334</v>
       </c>
       <c r="R7">
-        <v>0.133147885937</v>
+        <v>0.3324365330610001</v>
       </c>
       <c r="S7">
-        <v>0.0009790919043832131</v>
+        <v>0.003851679030817599</v>
       </c>
       <c r="T7">
-        <v>0.0009790919043832127</v>
+        <v>0.003851679030817599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09700633333333335</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H8">
-        <v>0.291019</v>
+        <v>0.000221</v>
       </c>
       <c r="I8">
-        <v>0.02298259367776701</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J8">
-        <v>0.02298259367776701</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.981129333333333</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N8">
-        <v>5.943388</v>
+        <v>0.501316</v>
       </c>
       <c r="O8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q8">
-        <v>0.1921820924857778</v>
+        <v>1.231009288888889E-05</v>
       </c>
       <c r="R8">
-        <v>1.729638832372</v>
+        <v>0.000110790836</v>
       </c>
       <c r="S8">
-        <v>0.01271875528751196</v>
+        <v>1.283645741034271E-06</v>
       </c>
       <c r="T8">
-        <v>0.01271875528751196</v>
+        <v>1.283645741034272E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09700633333333335</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H9">
-        <v>0.291019</v>
+        <v>0.000221</v>
       </c>
       <c r="I9">
-        <v>0.02298259367776701</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J9">
-        <v>0.02298259367776701</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04744600000000001</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N9">
-        <v>0.142338</v>
+        <v>5.943388</v>
       </c>
       <c r="O9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q9">
-        <v>0.004602562491333335</v>
+        <v>0.0001459431942222222</v>
       </c>
       <c r="R9">
-        <v>0.04142306242200001</v>
+        <v>0.001313488748</v>
       </c>
       <c r="S9">
-        <v>0.0003046010440701294</v>
+        <v>1.521835467751717E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003046010440701293</v>
+        <v>1.521835467751717E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09700633333333335</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H10">
-        <v>0.291019</v>
+        <v>0.000221</v>
       </c>
       <c r="I10">
-        <v>0.02298259367776701</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J10">
-        <v>0.02298259367776701</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.385388</v>
+        <v>0.380773</v>
       </c>
       <c r="N10">
-        <v>4.156164</v>
+        <v>1.142319</v>
       </c>
       <c r="O10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q10">
-        <v>0.134391410124</v>
+        <v>2.805027766666667E-05</v>
       </c>
       <c r="R10">
-        <v>1.209522691116</v>
+        <v>0.000252452499</v>
       </c>
       <c r="S10">
-        <v>0.008894124504536277</v>
+        <v>2.924967324506954E-06</v>
       </c>
       <c r="T10">
-        <v>0.008894124504536277</v>
+        <v>2.924967324506955E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.09700633333333335</v>
+        <v>3.473271</v>
       </c>
       <c r="H11">
-        <v>0.291019</v>
+        <v>10.419813</v>
       </c>
       <c r="I11">
-        <v>0.02298259367776701</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J11">
-        <v>0.02298259367776701</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.013399</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N11">
-        <v>0.040197</v>
+        <v>0.501316</v>
       </c>
       <c r="O11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q11">
-        <v>0.001299787860333334</v>
+        <v>0.580402108212</v>
       </c>
       <c r="R11">
-        <v>0.011698090743</v>
+        <v>5.223618973908001</v>
       </c>
       <c r="S11">
-        <v>8.602093726543149E-05</v>
+        <v>0.06052193927521962</v>
       </c>
       <c r="T11">
-        <v>8.602093726543149E-05</v>
+        <v>0.06052193927521962</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>7.366666666666666E-05</v>
+        <v>3.473271</v>
       </c>
       <c r="H12">
-        <v>0.000221</v>
+        <v>10.419813</v>
       </c>
       <c r="I12">
-        <v>1.745299517483913E-05</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J12">
-        <v>1.745299517483913E-05</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1525076666666667</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N12">
-        <v>0.457523</v>
+        <v>5.943388</v>
       </c>
       <c r="O12">
-        <v>0.04260145387029884</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P12">
-        <v>0.04260145387029883</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q12">
-        <v>1.123473144444444E-05</v>
+        <v>6.880999060716</v>
       </c>
       <c r="R12">
-        <v>0.000101112583</v>
+        <v>61.928991546444</v>
       </c>
       <c r="S12">
-        <v>7.435229688394573E-07</v>
+        <v>0.7175222167755848</v>
       </c>
       <c r="T12">
-        <v>7.435229688394572E-07</v>
+        <v>0.7175222167755847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>7.366666666666666E-05</v>
+        <v>3.473271</v>
       </c>
       <c r="H13">
-        <v>0.000221</v>
+        <v>10.419813</v>
       </c>
       <c r="I13">
-        <v>1.745299517483913E-05</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J13">
-        <v>1.745299517483913E-05</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.981129333333333</v>
+        <v>0.380773</v>
       </c>
       <c r="N13">
-        <v>5.943388</v>
+        <v>1.142319</v>
       </c>
       <c r="O13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q13">
-        <v>0.0001459431942222222</v>
+        <v>1.322527818483</v>
       </c>
       <c r="R13">
-        <v>0.001313488748</v>
+        <v>11.902750366347</v>
       </c>
       <c r="S13">
-        <v>9.658630256238056E-06</v>
+        <v>0.1379077491062117</v>
       </c>
       <c r="T13">
-        <v>9.658630256238056E-06</v>
+        <v>0.1379077491062117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.366666666666666E-05</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H14">
-        <v>0.000221</v>
+        <v>0.060778</v>
       </c>
       <c r="I14">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J14">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04744600000000001</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N14">
-        <v>0.142338</v>
+        <v>0.501316</v>
       </c>
       <c r="O14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q14">
-        <v>3.495188666666667E-06</v>
+        <v>0.003385442649777778</v>
       </c>
       <c r="R14">
-        <v>3.145669800000001E-05</v>
+        <v>0.030468983848</v>
       </c>
       <c r="S14">
-        <v>2.313142122662045E-07</v>
+        <v>0.0003530200038397328</v>
       </c>
       <c r="T14">
-        <v>2.313142122662045E-07</v>
+        <v>0.0003530200038397328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.366666666666666E-05</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H15">
-        <v>0.000221</v>
+        <v>0.060778</v>
       </c>
       <c r="I15">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J15">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.385388</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N15">
-        <v>4.156164</v>
+        <v>5.943388</v>
       </c>
       <c r="O15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q15">
-        <v>0.000102056916</v>
+        <v>0.04013635954044444</v>
       </c>
       <c r="R15">
-        <v>0.0009185122439999999</v>
+        <v>0.361227235864</v>
       </c>
       <c r="S15">
-        <v>6.754203387072724E-06</v>
+        <v>0.004185254120317369</v>
       </c>
       <c r="T15">
-        <v>6.754203387072724E-06</v>
+        <v>0.004185254120317368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.366666666666666E-05</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H16">
-        <v>0.000221</v>
+        <v>0.060778</v>
       </c>
       <c r="I16">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J16">
-        <v>1.745299517483913E-05</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013399</v>
+        <v>0.380773</v>
       </c>
       <c r="N16">
-        <v>0.040197</v>
+        <v>1.142319</v>
       </c>
       <c r="O16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q16">
-        <v>9.870596666666667E-07</v>
+        <v>0.007714207131333334</v>
       </c>
       <c r="R16">
-        <v>8.883537000000002E-06</v>
+        <v>0.069427864182</v>
       </c>
       <c r="S16">
-        <v>6.532435042268842E-08</v>
+        <v>0.0008044057196782066</v>
       </c>
       <c r="T16">
-        <v>6.532435042268842E-08</v>
+        <v>0.0008044057196782066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.051414</v>
+        <v>0.01641</v>
       </c>
       <c r="H17">
-        <v>12.154242</v>
+        <v>0.04923</v>
       </c>
       <c r="I17">
-        <v>0.9598548732118873</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J17">
-        <v>0.9598548732118872</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N17">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O17">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P17">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q17">
-        <v>0.6178716958406668</v>
+        <v>0.00274219852</v>
       </c>
       <c r="R17">
-        <v>5.560845262566001</v>
+        <v>0.02467978668</v>
       </c>
       <c r="S17">
-        <v>0.04089121310331776</v>
+        <v>0.0002859451576068651</v>
       </c>
       <c r="T17">
-        <v>0.04089121310331775</v>
+        <v>0.0002859451576068651</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.051414</v>
+        <v>0.01641</v>
       </c>
       <c r="H18">
-        <v>12.154242</v>
+        <v>0.04923</v>
       </c>
       <c r="I18">
-        <v>0.9598548732118873</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J18">
-        <v>0.9598548732118872</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q18">
-        <v>8.026375116877334</v>
+        <v>0.03251033236</v>
       </c>
       <c r="R18">
-        <v>72.23737605189599</v>
+        <v>0.29259299124</v>
       </c>
       <c r="S18">
-        <v>0.5311915363024404</v>
+        <v>0.00339004344241706</v>
       </c>
       <c r="T18">
-        <v>0.5311915363024404</v>
+        <v>0.00339004344241706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>4.051414</v>
+        <v>0.01641</v>
       </c>
       <c r="H19">
-        <v>12.154242</v>
+        <v>0.04923</v>
       </c>
       <c r="I19">
-        <v>0.9598548732118873</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J19">
-        <v>0.9598548732118872</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N19">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q19">
-        <v>0.192223388644</v>
+        <v>0.006248484930000001</v>
       </c>
       <c r="R19">
-        <v>1.730010497796</v>
+        <v>0.05623636437000001</v>
       </c>
       <c r="S19">
-        <v>0.0127214882982933</v>
+        <v>0.0006515662506130196</v>
       </c>
       <c r="T19">
-        <v>0.01272148829829329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>4.051414</v>
-      </c>
-      <c r="H20">
-        <v>12.154242</v>
-      </c>
-      <c r="I20">
-        <v>0.9598548732118873</v>
-      </c>
-      <c r="J20">
-        <v>0.9598548732118872</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.385388</v>
-      </c>
-      <c r="N20">
-        <v>4.156164</v>
-      </c>
-      <c r="O20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q20">
-        <v>5.612780338632</v>
-      </c>
-      <c r="R20">
-        <v>50.515023047688</v>
-      </c>
-      <c r="S20">
-        <v>0.3714580202882424</v>
-      </c>
-      <c r="T20">
-        <v>0.3714580202882423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>4.051414</v>
-      </c>
-      <c r="H21">
-        <v>12.154242</v>
-      </c>
-      <c r="I21">
-        <v>0.9598548732118873</v>
-      </c>
-      <c r="J21">
-        <v>0.9598548732118872</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.013399</v>
-      </c>
-      <c r="N21">
-        <v>0.040197</v>
-      </c>
-      <c r="O21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q21">
-        <v>0.05428489618600001</v>
-      </c>
-      <c r="R21">
-        <v>0.4885640656740001</v>
-      </c>
-      <c r="S21">
-        <v>0.003592615219593472</v>
-      </c>
-      <c r="T21">
-        <v>0.003592615219593471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.02013433333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.06040300000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="J22">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.457523</v>
-      </c>
-      <c r="O22">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P22">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q22">
-        <v>0.003070640196555556</v>
-      </c>
-      <c r="R22">
-        <v>0.027635761769</v>
-      </c>
-      <c r="S22">
-        <v>0.0002032172755059265</v>
-      </c>
-      <c r="T22">
-        <v>0.0002032172755059264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.02013433333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.06040300000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="J23">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.943388</v>
-      </c>
-      <c r="O23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q23">
-        <v>0.03988871837377778</v>
-      </c>
-      <c r="R23">
-        <v>0.358998465364</v>
-      </c>
-      <c r="S23">
-        <v>0.002639865354604286</v>
-      </c>
-      <c r="T23">
-        <v>0.002639865354604286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.02013433333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.06040300000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="J24">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.142338</v>
-      </c>
-      <c r="O24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q24">
-        <v>0.0009552935793333335</v>
-      </c>
-      <c r="R24">
-        <v>0.008597642214000003</v>
-      </c>
-      <c r="S24">
-        <v>6.322204689373554E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.322204689373553E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.02013433333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.06040300000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="J25">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.385388</v>
-      </c>
-      <c r="N25">
-        <v>4.156164</v>
-      </c>
-      <c r="O25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q25">
-        <v>0.027893863788</v>
-      </c>
-      <c r="R25">
-        <v>0.251044774092</v>
-      </c>
-      <c r="S25">
-        <v>0.001846036865110198</v>
-      </c>
-      <c r="T25">
-        <v>0.001846036865110198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.02013433333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.06040300000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="J26">
-        <v>0.004770195780750263</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.013399</v>
-      </c>
-      <c r="N26">
-        <v>0.040197</v>
-      </c>
-      <c r="O26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q26">
-        <v>0.0002697799323333334</v>
-      </c>
-      <c r="R26">
-        <v>0.002428019391000001</v>
-      </c>
-      <c r="S26">
-        <v>1.785423863611605E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.785423863611605E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.011261</v>
-      </c>
-      <c r="H27">
-        <v>0.033783</v>
-      </c>
-      <c r="I27">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J27">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.457523</v>
-      </c>
-      <c r="O27">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P27">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q27">
-        <v>0.001717388834333334</v>
-      </c>
-      <c r="R27">
-        <v>0.015456499509</v>
-      </c>
-      <c r="S27">
-        <v>0.000113658083512685</v>
-      </c>
-      <c r="T27">
-        <v>0.000113658083512685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.011261</v>
-      </c>
-      <c r="H28">
-        <v>0.033783</v>
-      </c>
-      <c r="I28">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J28">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N28">
-        <v>5.943388</v>
-      </c>
-      <c r="O28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q28">
-        <v>0.02230949742266667</v>
-      </c>
-      <c r="R28">
-        <v>0.200785476804</v>
-      </c>
-      <c r="S28">
-        <v>0.001476459302925295</v>
-      </c>
-      <c r="T28">
-        <v>0.001476459302925295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.011261</v>
-      </c>
-      <c r="H29">
-        <v>0.033783</v>
-      </c>
-      <c r="I29">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J29">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.142338</v>
-      </c>
-      <c r="O29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q29">
-        <v>0.0005342894060000001</v>
-      </c>
-      <c r="R29">
-        <v>0.004808604654000001</v>
-      </c>
-      <c r="S29">
-        <v>3.535967435741714E-05</v>
-      </c>
-      <c r="T29">
-        <v>3.535967435741713E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.011261</v>
-      </c>
-      <c r="H30">
-        <v>0.033783</v>
-      </c>
-      <c r="I30">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J30">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.385388</v>
-      </c>
-      <c r="N30">
-        <v>4.156164</v>
-      </c>
-      <c r="O30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q30">
-        <v>0.015600854268</v>
-      </c>
-      <c r="R30">
-        <v>0.140407688412</v>
-      </c>
-      <c r="S30">
-        <v>0.001032476258033836</v>
-      </c>
-      <c r="T30">
-        <v>0.001032476258033836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.011261</v>
-      </c>
-      <c r="H31">
-        <v>0.033783</v>
-      </c>
-      <c r="I31">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J31">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.013399</v>
-      </c>
-      <c r="N31">
-        <v>0.040197</v>
-      </c>
-      <c r="O31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q31">
-        <v>0.000150886139</v>
-      </c>
-      <c r="R31">
-        <v>0.001357975251</v>
-      </c>
-      <c r="S31">
-        <v>9.985758055790418E-06</v>
-      </c>
-      <c r="T31">
-        <v>9.985758055790417E-06</v>
+        <v>0.0006515662506130198</v>
       </c>
     </row>
   </sheetData>
